--- a/rsvp-wedding.xlsx
+++ b/rsvp-wedding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\source\repos\wedding-rsvp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4874721E-00FB-44E4-AA13-7221B2C72AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B99E3957-DC0D-4353-AF36-DD8322E223BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1D8D7009-79E4-4DDF-A9CA-FC5C9EE57A58}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{1D8D7009-79E4-4DDF-A9CA-FC5C9EE57A58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>full_name</t>
+    <t>full_name_guest1</t>
+  </si>
+  <si>
+    <t>full_name_guest2</t>
+  </si>
+  <si>
+    <t>full_name_guest3</t>
+  </si>
+  <si>
+    <t>full_name_guest4</t>
   </si>
 </sst>
 </file>
@@ -390,15 +399,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A24346A-FE04-4036-AB43-DF6B562F7191}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
